--- a/IBK/excel/BL_ret_BL_result_0715_04_exp.xlsx
+++ b/IBK/excel/BL_ret_BL_result_0715_04_exp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="28830" windowHeight="7110"/>
+    <workbookView xWindow="-15" yWindow="10650" windowWidth="28830" windowHeight="3585"/>
   </bookViews>
   <sheets>
     <sheet name="BL" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1172" uniqueCount="759">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1172" uniqueCount="760">
   <si>
     <t>file name</t>
   </si>
@@ -4543,6 +4543,35 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> LTD.,</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>SHI</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DAO, CHINA</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -4551,7 +4580,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4614,6 +4643,15 @@
     <font>
       <b/>
       <sz val="9"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -9926,8 +9964,8 @@
   <dimension ref="A1:I348"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H50" sqref="H50"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H53" sqref="H53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -10376,7 +10414,7 @@
         <v>48</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>42</v>
+        <v>759</v>
       </c>
       <c r="G19" s="12" t="s">
         <v>49</v>

--- a/IBK/excel/BL_ret_BL_result_0715_04_exp.xlsx
+++ b/IBK/excel/BL_ret_BL_result_0715_04_exp.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1172" uniqueCount="760">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1161" uniqueCount="751">
   <si>
     <t>file name</t>
   </si>
@@ -1048,9 +1048,6 @@
     <t>LAEM CHABANG THAILAND,</t>
   </si>
   <si>
-    <t>012752192000192_304023_20190226_3019022613294106.1</t>
-  </si>
-  <si>
     <t>HYUNDAI MERCHANT MARINE CO  LTD</t>
   </si>
   <si>
@@ -1294,9 +1291,6 @@
     <t>BY,</t>
   </si>
   <si>
-    <t>BL_002952191000801_304023_20190226_3019022614310009</t>
-  </si>
-  <si>
     <t>TOYOSHIMA AND CO    LTD(9340) 15-15  NISHIKI 2-CHOME  NAKAKU NAGOYA JAPAN</t>
   </si>
   <si>
@@ -1339,9 +1333,6 @@
     <t>WAN HAI 308/N011,</t>
   </si>
   <si>
-    <t>BL_003052191000445_304023_20190226_201902261600380g</t>
-  </si>
-  <si>
     <t>KURABO INTERNATIONAL CO   LTD 2-4-31 KYUTAROMACHI CHUO-KU OSAKA JAPAN</t>
   </si>
   <si>
@@ -1534,9 +1525,6 @@
     <t>ROTO CLASS CHARGOABIO COMMODITY WEIGHT ITARN NO,</t>
   </si>
   <si>
-    <t>BL_005452196000460_304023_20190221_2019022115154106.1</t>
-  </si>
-  <si>
     <t>BL_005752191000160_304023_20190221_2019022112462207.1.jpg</t>
   </si>
   <si>
@@ -1693,9 +1681,6 @@
     <t>BILLS OF LADNG. ALL OF,</t>
   </si>
   <si>
-    <t>BL_013252191000502_304023_20190228_201902281513110a.1</t>
-  </si>
-  <si>
     <t>D LUXE INTERNATIONAL CO  LTD    NO 9  STREET CHOAM CHAO  SANGKAT CHOAM CHAO  KHAN POR SENCHEY  PHNOM PENH  KINGDOM OF CAMBODIA</t>
   </si>
   <si>
@@ -1768,12 +1753,6 @@
     <t>MSC TERESA 907W</t>
   </si>
   <si>
-    <t>BL_017852194000484_304023_20190226_3019022614060503.1.jpg</t>
-  </si>
-  <si>
-    <t>BL_017852194000484_304023_20190226_3019022614060503.1</t>
-  </si>
-  <si>
     <t>HANDLOPEX S A UL  REGULSKA 49 02-495 WARSZAWA POLSKA POLAND</t>
   </si>
   <si>
@@ -1859,9 +1838,6 @@
   </si>
   <si>
     <t>THE PORT OF DISCHARGE OR PLACE OF DELIVERY AS INDICATED ABOVE. THE GOODS TO BE DELIVERED,</t>
-  </si>
-  <si>
-    <t>BL_043452191000089_304023_20190222_201902221328270i.2</t>
   </si>
   <si>
     <t>CEDAR OFFICE CENTER SARL  NEW AIRPORT ROAD  AL KHOUYOUL BLDG  GF  BEIRUT  LEBANON</t>
@@ -1948,10 +1924,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>이미지 품질 문제</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">UNITED SWEETHEARTS GARMENT (VIETNAM)CO..LTD. ROAD 10. NHON TRACH I INDUSTRIAL ZONE. NHON TRACH DISTRICT. DONG NA I PROVINCE. VIETNAM </t>
     </r>
@@ -3735,10 +3707,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>이미지 포맷의 라인겹침</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">TO THE ORDER OF </t>
     </r>
@@ -4424,14 +4392,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>이미지 품질문제</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>이미지 품질문제(이미지 배경 노이즈)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">SILVER SPARK APPAREL ETHIOPIA PLC SHED #17 18 19 HAWASSA </t>
     </r>
@@ -4573,6 +4533,18 @@
       </rPr>
       <t>DAO, CHINA</t>
     </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>글자겹침</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BL_003052191000445_304023_20190226_201902261600380g</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BL_017852194000484_304023_20190226_3019022614060503.1.jpg</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -4658,7 +4630,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4695,8 +4667,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -4719,11 +4697,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4793,6 +4808,24 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -4817,8 +4850,8 @@
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>3667125</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>828675</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>832994</xdr:rowOff>
     </xdr:to>
@@ -9225,8 +9258,8 @@
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2848371</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9921</xdr:colOff>
       <xdr:row>314</xdr:row>
       <xdr:rowOff>485841</xdr:rowOff>
     </xdr:to>
@@ -9964,14 +9997,14 @@
   <dimension ref="A1:I348"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H53" sqref="H53"/>
+      <pane ySplit="1" topLeftCell="A335" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G350" sqref="G350"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="51.875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="51.625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="37.25" style="2" customWidth="1"/>
     <col min="3" max="3" width="27.75" style="2" customWidth="1"/>
     <col min="4" max="4" width="36.75" style="2" customWidth="1"/>
     <col min="5" max="6" width="17.125" style="2" customWidth="1"/>
@@ -10070,7 +10103,7 @@
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" s="11" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -10315,7 +10348,7 @@
         <v>43</v>
       </c>
       <c r="H14" s="14" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
       <c r="I14" s="4"/>
     </row>
@@ -10334,14 +10367,14 @@
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="8" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
       <c r="F16" s="13"/>
       <c r="G16" s="13"/>
       <c r="H16" s="7" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="I16" s="9"/>
     </row>
@@ -10414,7 +10447,7 @@
         <v>48</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>759</v>
+        <v>747</v>
       </c>
       <c r="G19" s="12" t="s">
         <v>49</v>
@@ -10439,18 +10472,18 @@
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="8" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="13" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="I21" s="9"/>
     </row>
@@ -10482,7 +10515,7 @@
       </c>
     </row>
     <row r="23" spans="1:9" ht="24" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="25" t="s">
         <v>51</v>
       </c>
       <c r="B23" s="4" t="s">
@@ -10505,9 +10538,7 @@
       <c r="I23" s="4"/>
     </row>
     <row r="24" spans="1:9" ht="24" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
-        <v>51</v>
-      </c>
+      <c r="A24" s="26"/>
       <c r="B24" s="4" t="s">
         <v>52</v>
       </c>
@@ -10532,7 +10563,7 @@
       <c r="I24" s="4"/>
     </row>
     <row r="25" spans="1:9" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
+      <c r="A25" s="26"/>
       <c r="B25" s="4"/>
       <c r="C25" s="12"/>
       <c r="D25" s="4"/>
@@ -10543,7 +10574,7 @@
       <c r="I25" s="4"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="4"/>
+      <c r="A26" s="27"/>
       <c r="B26" s="4"/>
       <c r="C26" s="12"/>
       <c r="D26" s="4"/>
@@ -10551,7 +10582,7 @@
       <c r="F26" s="4"/>
       <c r="G26" s="12"/>
       <c r="H26" s="4" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="I26" s="4"/>
     </row>
@@ -10652,7 +10683,7 @@
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
       <c r="F31" s="6" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="G31" s="12"/>
       <c r="H31" s="4"/>
@@ -10706,7 +10737,7 @@
       </c>
       <c r="G33" s="12"/>
       <c r="H33" s="12" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="I33" s="4"/>
     </row>
@@ -10754,11 +10785,11 @@
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="12" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="F36" s="12"/>
       <c r="G36" s="12" t="s">
-        <v>629</v>
+        <v>621</v>
       </c>
       <c r="H36" s="12"/>
       <c r="I36" s="4"/>
@@ -10901,7 +10932,7 @@
         <v>90</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>90</v>
@@ -11004,7 +11035,7 @@
         <v>101</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
       <c r="D48" s="16" t="s">
         <v>101</v>
@@ -11061,7 +11092,7 @@
       <c r="A51" s="16"/>
       <c r="B51" s="16"/>
       <c r="C51" s="16" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="D51" s="16"/>
       <c r="E51" s="18"/>
@@ -11195,7 +11226,7 @@
       </c>
     </row>
     <row r="58" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="19" t="s">
+      <c r="A58" s="28" t="s">
         <v>112</v>
       </c>
       <c r="B58" s="19"/>
@@ -11212,9 +11243,7 @@
       <c r="I58" s="19"/>
     </row>
     <row r="59" spans="1:9" s="17" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A59" s="19" t="s">
-        <v>112</v>
-      </c>
+      <c r="A59" s="29"/>
       <c r="B59" s="19" t="s">
         <v>59</v>
       </c>
@@ -11239,7 +11268,7 @@
       <c r="I59" s="19"/>
     </row>
     <row r="60" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="19"/>
+      <c r="A60" s="29"/>
       <c r="B60" s="19"/>
       <c r="C60" s="19"/>
       <c r="D60" s="19"/>
@@ -11250,9 +11279,7 @@
       <c r="I60" s="19"/>
     </row>
     <row r="61" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="19" t="s">
-        <v>632</v>
-      </c>
+      <c r="A61" s="30"/>
       <c r="B61" s="19"/>
       <c r="C61" s="19"/>
       <c r="D61" s="19"/>
@@ -11300,10 +11327,10 @@
         <v>122</v>
       </c>
       <c r="D63" s="18" t="s">
-        <v>633</v>
+        <v>624</v>
       </c>
       <c r="E63" s="15" t="s">
-        <v>635</v>
+        <v>626</v>
       </c>
       <c r="F63" s="18" t="s">
         <v>123</v>
@@ -11359,17 +11386,17 @@
       <c r="B66" s="16"/>
       <c r="C66" s="16"/>
       <c r="D66" s="15" t="s">
-        <v>634</v>
+        <v>625</v>
       </c>
       <c r="E66" s="15" t="s">
-        <v>634</v>
+        <v>625</v>
       </c>
       <c r="F66" s="15" t="s">
-        <v>636</v>
+        <v>627</v>
       </c>
       <c r="G66" s="14"/>
       <c r="H66" s="15" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="I66" s="16"/>
     </row>
@@ -11409,10 +11436,10 @@
         <v>10</v>
       </c>
       <c r="D68" s="18" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="E68" s="18" t="s">
-        <v>644</v>
+        <v>635</v>
       </c>
       <c r="F68" s="16" t="s">
         <v>131</v>
@@ -11430,11 +11457,11 @@
         <v>130</v>
       </c>
       <c r="B69" s="18" t="s">
-        <v>638</v>
+        <v>629</v>
       </c>
       <c r="C69" s="16"/>
       <c r="D69" s="18" t="s">
-        <v>639</v>
+        <v>630</v>
       </c>
       <c r="E69" s="18" t="s">
         <v>134</v>
@@ -11464,15 +11491,15 @@
       <c r="B71" s="18"/>
       <c r="C71" s="16"/>
       <c r="D71" s="15" t="s">
-        <v>641</v>
+        <v>632</v>
       </c>
       <c r="E71" s="15" t="s">
-        <v>643</v>
+        <v>634</v>
       </c>
       <c r="F71" s="16"/>
       <c r="G71" s="16"/>
       <c r="H71" s="15" t="s">
-        <v>642</v>
+        <v>633</v>
       </c>
       <c r="I71" s="16"/>
     </row>
@@ -11574,7 +11601,7 @@
       <c r="E76" s="16"/>
       <c r="F76" s="16"/>
       <c r="G76" s="15" t="s">
-        <v>636</v>
+        <v>627</v>
       </c>
       <c r="H76" s="16"/>
       <c r="I76" s="16"/>
@@ -11638,7 +11665,7 @@
         <v>144</v>
       </c>
       <c r="B79" s="18" t="s">
-        <v>645</v>
+        <v>636</v>
       </c>
       <c r="C79" s="18" t="s">
         <v>149</v>
@@ -11710,7 +11737,7 @@
       </c>
     </row>
     <row r="83" spans="1:9" s="17" customFormat="1" ht="36" x14ac:dyDescent="0.3">
-      <c r="A83" s="19" t="s">
+      <c r="A83" s="28" t="s">
         <v>152</v>
       </c>
       <c r="B83" s="18"/>
@@ -11731,9 +11758,7 @@
       <c r="I83" s="16"/>
     </row>
     <row r="84" spans="1:9" s="17" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A84" s="19" t="s">
-        <v>152</v>
-      </c>
+      <c r="A84" s="29"/>
       <c r="B84" s="18" t="s">
         <v>59</v>
       </c>
@@ -11758,7 +11783,7 @@
       <c r="I84" s="16"/>
     </row>
     <row r="85" spans="1:9" s="17" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="19"/>
+      <c r="A85" s="29"/>
       <c r="B85" s="18"/>
       <c r="C85" s="18"/>
       <c r="D85" s="16"/>
@@ -11769,9 +11794,7 @@
       <c r="I85" s="16"/>
     </row>
     <row r="86" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="19" t="s">
-        <v>632</v>
-      </c>
+      <c r="A86" s="30"/>
       <c r="B86" s="18"/>
       <c r="C86" s="18"/>
       <c r="D86" s="16"/>
@@ -11873,7 +11896,7 @@
       <c r="C91" s="16"/>
       <c r="D91" s="16"/>
       <c r="E91" s="18" t="s">
-        <v>646</v>
+        <v>637</v>
       </c>
       <c r="F91" s="16"/>
       <c r="G91" s="16"/>
@@ -12082,7 +12105,7 @@
       <c r="F101" s="16"/>
       <c r="G101" s="16"/>
       <c r="H101" s="14" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="I101" s="16"/>
     </row>
@@ -12177,12 +12200,12 @@
       <c r="B106" s="16"/>
       <c r="C106" s="16"/>
       <c r="D106" s="15" t="s">
-        <v>647</v>
+        <v>638</v>
       </c>
       <c r="E106" s="18"/>
       <c r="F106" s="16"/>
       <c r="G106" s="18" t="s">
-        <v>647</v>
+        <v>638</v>
       </c>
       <c r="H106" s="16"/>
       <c r="I106" s="16"/>
@@ -12287,7 +12310,7 @@
       <c r="E111" s="16"/>
       <c r="F111" s="16"/>
       <c r="G111" s="18" t="s">
-        <v>647</v>
+        <v>638</v>
       </c>
       <c r="H111" s="16"/>
       <c r="I111" s="16"/>
@@ -12330,7 +12353,7 @@
         <v>215</v>
       </c>
       <c r="D113" s="18" t="s">
-        <v>648</v>
+        <v>639</v>
       </c>
       <c r="E113" s="18" t="s">
         <v>216</v>
@@ -12389,15 +12412,15 @@
       <c r="B116" s="16"/>
       <c r="C116" s="16"/>
       <c r="D116" s="15" t="s">
-        <v>649</v>
+        <v>640</v>
       </c>
       <c r="E116" s="15" t="s">
-        <v>649</v>
+        <v>640</v>
       </c>
       <c r="F116" s="16"/>
       <c r="G116" s="16"/>
       <c r="H116" s="14" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="I116" s="16"/>
     </row>
@@ -12464,7 +12487,7 @@
       </c>
       <c r="C119" s="16"/>
       <c r="D119" s="18" t="s">
-        <v>650</v>
+        <v>641</v>
       </c>
       <c r="E119" s="16" t="s">
         <v>233</v>
@@ -12496,13 +12519,13 @@
       <c r="B121" s="16"/>
       <c r="C121" s="16"/>
       <c r="D121" s="15" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="E121" s="16"/>
       <c r="F121" s="16"/>
       <c r="G121" s="16"/>
       <c r="H121" s="14" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="I121" s="16"/>
     </row>
@@ -12544,10 +12567,10 @@
         <v>10</v>
       </c>
       <c r="D123" s="16" t="s">
-        <v>652</v>
+        <v>643</v>
       </c>
       <c r="E123" s="16" t="s">
-        <v>653</v>
+        <v>644</v>
       </c>
       <c r="F123" s="16" t="s">
         <v>237</v>
@@ -12603,10 +12626,10 @@
       <c r="B126" s="16"/>
       <c r="C126" s="18"/>
       <c r="D126" s="14" t="s">
-        <v>634</v>
+        <v>625</v>
       </c>
       <c r="E126" s="14" t="s">
-        <v>634</v>
+        <v>625</v>
       </c>
       <c r="F126" s="16"/>
       <c r="G126" s="16"/>
@@ -12651,7 +12674,7 @@
         <v>248</v>
       </c>
       <c r="D128" s="16" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="E128" s="16" t="s">
         <v>249</v>
@@ -12709,10 +12732,10 @@
       <c r="A131" s="16"/>
       <c r="B131" s="16"/>
       <c r="C131" s="20" t="s">
-        <v>654</v>
+        <v>645</v>
       </c>
       <c r="D131" s="14" t="s">
-        <v>634</v>
+        <v>625</v>
       </c>
       <c r="E131" s="16"/>
       <c r="F131" s="16"/>
@@ -12758,7 +12781,7 @@
         <v>253</v>
       </c>
       <c r="D133" s="16" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="E133" s="16" t="s">
         <v>254</v>
@@ -12816,10 +12839,10 @@
       <c r="A136" s="16"/>
       <c r="B136" s="16"/>
       <c r="C136" s="20" t="s">
-        <v>654</v>
+        <v>645</v>
       </c>
       <c r="D136" s="14" t="s">
-        <v>634</v>
+        <v>625</v>
       </c>
       <c r="E136" s="16"/>
       <c r="F136" s="16"/>
@@ -12865,7 +12888,7 @@
         <v>10</v>
       </c>
       <c r="D138" s="16" t="s">
-        <v>657</v>
+        <v>648</v>
       </c>
       <c r="E138" s="18"/>
       <c r="F138" s="18"/>
@@ -12888,7 +12911,7 @@
         <v>262</v>
       </c>
       <c r="D139" s="16" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
       <c r="E139" s="18" t="s">
         <v>263</v>
@@ -12920,7 +12943,7 @@
       <c r="B141" s="16"/>
       <c r="C141" s="18"/>
       <c r="D141" s="14" t="s">
-        <v>634</v>
+        <v>625</v>
       </c>
       <c r="E141" s="18"/>
       <c r="F141" s="18"/>
@@ -12964,7 +12987,7 @@
         <v>267</v>
       </c>
       <c r="D143" s="18" t="s">
-        <v>656</v>
+        <v>647</v>
       </c>
       <c r="E143" s="18"/>
       <c r="F143" s="18"/>
@@ -12987,7 +13010,7 @@
         <v>262</v>
       </c>
       <c r="D144" s="18" t="s">
-        <v>658</v>
+        <v>649</v>
       </c>
       <c r="E144" s="18" t="s">
         <v>263</v>
@@ -13019,7 +13042,7 @@
       <c r="B146" s="18"/>
       <c r="C146" s="16"/>
       <c r="D146" s="15" t="s">
-        <v>634</v>
+        <v>625</v>
       </c>
       <c r="E146" s="18"/>
       <c r="F146" s="18"/>
@@ -13059,13 +13082,13 @@
         <v>269</v>
       </c>
       <c r="B148" s="16" t="s">
-        <v>662</v>
+        <v>653</v>
       </c>
       <c r="C148" s="16" t="s">
         <v>270</v>
       </c>
       <c r="D148" s="18" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
       <c r="E148" s="16" t="s">
         <v>271</v>
@@ -13086,13 +13109,13 @@
         <v>275</v>
       </c>
       <c r="B149" s="16" t="s">
-        <v>664</v>
+        <v>655</v>
       </c>
       <c r="C149" s="16" t="s">
         <v>276</v>
       </c>
       <c r="D149" s="18" t="s">
-        <v>660</v>
+        <v>651</v>
       </c>
       <c r="E149" s="16" t="s">
         <v>277</v>
@@ -13122,11 +13145,11 @@
     <row r="151" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A151" s="16"/>
       <c r="B151" s="14" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="C151" s="16"/>
       <c r="D151" s="15" t="s">
-        <v>634</v>
+        <v>625</v>
       </c>
       <c r="E151" s="16"/>
       <c r="F151" s="16"/>
@@ -13166,7 +13189,7 @@
         <v>281</v>
       </c>
       <c r="B153" s="18" t="s">
-        <v>663</v>
+        <v>654</v>
       </c>
       <c r="C153" s="18" t="s">
         <v>10</v>
@@ -13200,7 +13223,7 @@
         <v>16</v>
       </c>
       <c r="E154" s="16" t="s">
-        <v>665</v>
+        <v>656</v>
       </c>
       <c r="F154" s="16" t="s">
         <v>288</v>
@@ -13227,12 +13250,12 @@
     <row r="156" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A156" s="16"/>
       <c r="B156" s="15" t="s">
-        <v>649</v>
+        <v>640</v>
       </c>
       <c r="C156" s="18"/>
       <c r="D156" s="16"/>
       <c r="E156" s="14" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="F156" s="16"/>
       <c r="G156" s="18"/>
@@ -13271,7 +13294,7 @@
         <v>291</v>
       </c>
       <c r="B158" s="18" t="s">
-        <v>666</v>
+        <v>657</v>
       </c>
       <c r="C158" s="16" t="s">
         <v>292</v>
@@ -13280,7 +13303,7 @@
         <v>293</v>
       </c>
       <c r="E158" s="18" t="s">
-        <v>667</v>
+        <v>658</v>
       </c>
       <c r="F158" s="19" t="s">
         <v>294</v>
@@ -13289,7 +13312,7 @@
         <v>295</v>
       </c>
       <c r="H158" s="16" t="s">
-        <v>668</v>
+        <v>659</v>
       </c>
       <c r="I158" s="16"/>
     </row>
@@ -13316,7 +13339,7 @@
         <v>301</v>
       </c>
       <c r="H159" s="16" t="s">
-        <v>670</v>
+        <v>661</v>
       </c>
       <c r="I159" s="16"/>
     </row>
@@ -13337,14 +13360,14 @@
       <c r="C161" s="16"/>
       <c r="D161" s="18"/>
       <c r="E161" s="15" t="s">
-        <v>649</v>
+        <v>640</v>
       </c>
       <c r="F161" s="20" t="s">
-        <v>647</v>
+        <v>638</v>
       </c>
       <c r="G161" s="16"/>
       <c r="H161" s="14" t="s">
-        <v>669</v>
+        <v>660</v>
       </c>
       <c r="I161" s="16"/>
     </row>
@@ -13386,10 +13409,10 @@
         <v>304</v>
       </c>
       <c r="D163" s="16" t="s">
-        <v>672</v>
+        <v>663</v>
       </c>
       <c r="E163" s="16" t="s">
-        <v>673</v>
+        <v>664</v>
       </c>
       <c r="F163" s="16" t="s">
         <v>305</v>
@@ -13407,7 +13430,7 @@
         <v>308</v>
       </c>
       <c r="B164" s="16" t="s">
-        <v>671</v>
+        <v>662</v>
       </c>
       <c r="C164" s="16" t="s">
         <v>309</v>
@@ -13443,14 +13466,14 @@
     <row r="166" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A166" s="16"/>
       <c r="B166" s="16" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="C166" s="16"/>
       <c r="D166" s="14" t="s">
-        <v>649</v>
+        <v>640</v>
       </c>
       <c r="E166" s="14" t="s">
-        <v>649</v>
+        <v>640</v>
       </c>
       <c r="F166" s="16"/>
       <c r="G166" s="16"/>
@@ -13495,7 +13518,7 @@
         <v>316</v>
       </c>
       <c r="D168" s="18" t="s">
-        <v>674</v>
+        <v>665</v>
       </c>
       <c r="E168" s="16" t="s">
         <v>317</v>
@@ -13550,11 +13573,11 @@
     <row r="171" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A171" s="16"/>
       <c r="B171" s="18" t="s">
-        <v>649</v>
+        <v>640</v>
       </c>
       <c r="C171" s="16"/>
       <c r="D171" s="18" t="s">
-        <v>649</v>
+        <v>640</v>
       </c>
       <c r="E171" s="16"/>
       <c r="F171" s="16"/>
@@ -13621,7 +13644,7 @@
         <v>287</v>
       </c>
       <c r="D174" s="16" t="s">
-        <v>675</v>
+        <v>666</v>
       </c>
       <c r="E174" s="18" t="s">
         <v>334</v>
@@ -13653,10 +13676,10 @@
       <c r="B176" s="18"/>
       <c r="C176" s="16"/>
       <c r="D176" s="14" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="E176" s="18" t="s">
-        <v>677</v>
+        <v>668</v>
       </c>
       <c r="F176" s="18"/>
       <c r="G176" s="18"/>
@@ -13724,7 +13747,7 @@
         <v>287</v>
       </c>
       <c r="D179" s="16" t="s">
-        <v>676</v>
+        <v>667</v>
       </c>
       <c r="E179" s="18" t="s">
         <v>334</v>
@@ -13756,10 +13779,10 @@
       <c r="B181" s="16"/>
       <c r="C181" s="16"/>
       <c r="D181" s="14" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="E181" s="18" t="s">
-        <v>677</v>
+        <v>668</v>
       </c>
       <c r="F181" s="18"/>
       <c r="G181" s="18"/>
@@ -13794,7 +13817,7 @@
       </c>
     </row>
     <row r="183" spans="1:9" s="17" customFormat="1" ht="36" x14ac:dyDescent="0.3">
-      <c r="A183" s="16" t="s">
+      <c r="A183" s="28" t="s">
         <v>340</v>
       </c>
       <c r="B183" s="16" t="s">
@@ -13815,34 +13838,32 @@
       <c r="I183" s="16"/>
     </row>
     <row r="184" spans="1:9" s="17" customFormat="1" ht="36" x14ac:dyDescent="0.3">
-      <c r="A184" s="16" t="s">
+      <c r="A184" s="29"/>
+      <c r="B184" s="16" t="s">
+        <v>669</v>
+      </c>
+      <c r="C184" s="16" t="s">
         <v>344</v>
       </c>
-      <c r="B184" s="16" t="s">
-        <v>678</v>
-      </c>
-      <c r="C184" s="16" t="s">
+      <c r="D184" s="16" t="s">
+        <v>670</v>
+      </c>
+      <c r="E184" s="16" t="s">
         <v>345</v>
-      </c>
-      <c r="D184" s="16" t="s">
-        <v>679</v>
-      </c>
-      <c r="E184" s="16" t="s">
-        <v>346</v>
       </c>
       <c r="F184" s="18" t="s">
         <v>288</v>
       </c>
       <c r="G184" s="18" t="s">
+        <v>346</v>
+      </c>
+      <c r="H184" s="18" t="s">
         <v>347</v>
       </c>
-      <c r="H184" s="18" t="s">
-        <v>348</v>
-      </c>
       <c r="I184" s="16"/>
     </row>
     <row r="185" spans="1:9" s="17" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A185" s="16"/>
+      <c r="A185" s="29"/>
       <c r="B185" s="16"/>
       <c r="C185" s="16"/>
       <c r="D185" s="16"/>
@@ -13853,18 +13874,24 @@
       <c r="I185" s="16"/>
     </row>
     <row r="186" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A186" s="16"/>
+      <c r="A186" s="30"/>
       <c r="B186" s="14" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="C186" s="16"/>
       <c r="D186" s="14" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="E186" s="16"/>
-      <c r="F186" s="18"/>
-      <c r="G186" s="18"/>
-      <c r="H186" s="18"/>
+      <c r="F186" s="18" t="s">
+        <v>748</v>
+      </c>
+      <c r="G186" s="18" t="s">
+        <v>748</v>
+      </c>
+      <c r="H186" s="18" t="s">
+        <v>748</v>
+      </c>
       <c r="I186" s="16"/>
     </row>
     <row r="187" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.3">
@@ -13896,55 +13923,55 @@
     </row>
     <row r="188" spans="1:9" s="17" customFormat="1" ht="36" x14ac:dyDescent="0.3">
       <c r="A188" s="16" t="s">
+        <v>348</v>
+      </c>
+      <c r="B188" s="18" t="s">
+        <v>671</v>
+      </c>
+      <c r="C188" s="16" t="s">
         <v>349</v>
       </c>
-      <c r="B188" s="18" t="s">
-        <v>680</v>
-      </c>
-      <c r="C188" s="16" t="s">
+      <c r="D188" s="18" t="s">
+        <v>672</v>
+      </c>
+      <c r="E188" s="16" t="s">
         <v>350</v>
       </c>
-      <c r="D188" s="18" t="s">
-        <v>681</v>
-      </c>
-      <c r="E188" s="16" t="s">
+      <c r="F188" s="16" t="s">
         <v>351</v>
       </c>
-      <c r="F188" s="16" t="s">
+      <c r="G188" s="16" t="s">
         <v>352</v>
       </c>
-      <c r="G188" s="16" t="s">
+      <c r="H188" s="16" t="s">
         <v>353</v>
-      </c>
-      <c r="H188" s="16" t="s">
-        <v>354</v>
       </c>
       <c r="I188" s="16"/>
     </row>
     <row r="189" spans="1:9" s="17" customFormat="1" ht="36" x14ac:dyDescent="0.3">
       <c r="A189" s="16" t="s">
-        <v>682</v>
+        <v>673</v>
       </c>
       <c r="B189" s="18" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C189" s="16" t="s">
+        <v>344</v>
+      </c>
+      <c r="D189" s="18" t="s">
+        <v>354</v>
+      </c>
+      <c r="E189" s="16" t="s">
         <v>345</v>
-      </c>
-      <c r="D189" s="18" t="s">
-        <v>355</v>
-      </c>
-      <c r="E189" s="16" t="s">
-        <v>346</v>
       </c>
       <c r="F189" s="16" t="s">
         <v>288</v>
       </c>
       <c r="G189" s="16" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H189" s="16" t="s">
-        <v>683</v>
+        <v>674</v>
       </c>
       <c r="I189" s="16"/>
     </row>
@@ -13962,17 +13989,17 @@
     <row r="191" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A191" s="16"/>
       <c r="B191" s="15" t="s">
-        <v>649</v>
+        <v>640</v>
       </c>
       <c r="C191" s="16"/>
       <c r="D191" s="15" t="s">
-        <v>649</v>
+        <v>640</v>
       </c>
       <c r="E191" s="16"/>
       <c r="F191" s="16"/>
       <c r="G191" s="16"/>
       <c r="H191" s="14" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="I191" s="16"/>
     </row>
@@ -14005,10 +14032,10 @@
     </row>
     <row r="193" spans="1:9" s="17" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="A193" s="16" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B193" s="18" t="s">
-        <v>684</v>
+        <v>675</v>
       </c>
       <c r="C193" s="18" t="s">
         <v>10</v>
@@ -14017,43 +14044,43 @@
         <v>53</v>
       </c>
       <c r="E193" s="16" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F193" s="16" t="s">
         <v>318</v>
       </c>
       <c r="G193" s="18" t="s">
+        <v>358</v>
+      </c>
+      <c r="H193" s="16" t="s">
         <v>359</v>
-      </c>
-      <c r="H193" s="16" t="s">
-        <v>360</v>
       </c>
       <c r="I193" s="16"/>
     </row>
     <row r="194" spans="1:9" s="17" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="A194" s="16" t="s">
+        <v>360</v>
+      </c>
+      <c r="B194" s="18" t="s">
         <v>361</v>
       </c>
-      <c r="B194" s="18" t="s">
+      <c r="C194" s="18" t="s">
         <v>362</v>
-      </c>
-      <c r="C194" s="18" t="s">
-        <v>363</v>
       </c>
       <c r="D194" s="16" t="s">
         <v>16</v>
       </c>
       <c r="E194" s="16" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F194" s="16" t="s">
         <v>264</v>
       </c>
       <c r="G194" s="18" t="s">
+        <v>364</v>
+      </c>
+      <c r="H194" s="16" t="s">
         <v>365</v>
-      </c>
-      <c r="H194" s="16" t="s">
-        <v>366</v>
       </c>
       <c r="I194" s="16"/>
     </row>
@@ -14071,7 +14098,7 @@
     <row r="196" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A196" s="16"/>
       <c r="B196" s="15" t="s">
-        <v>649</v>
+        <v>640</v>
       </c>
       <c r="C196" s="18"/>
       <c r="D196" s="16"/>
@@ -14110,55 +14137,55 @@
     </row>
     <row r="198" spans="1:9" s="17" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="A198" s="16" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B198" s="18" t="s">
-        <v>685</v>
+        <v>676</v>
       </c>
       <c r="C198" s="19" t="s">
         <v>10</v>
       </c>
       <c r="D198" s="18" t="s">
-        <v>686</v>
+        <v>677</v>
       </c>
       <c r="E198" s="16" t="s">
+        <v>367</v>
+      </c>
+      <c r="F198" s="16" t="s">
         <v>368</v>
       </c>
-      <c r="F198" s="16" t="s">
+      <c r="G198" s="18" t="s">
         <v>369</v>
       </c>
-      <c r="G198" s="18" t="s">
+      <c r="H198" s="16" t="s">
         <v>370</v>
-      </c>
-      <c r="H198" s="16" t="s">
-        <v>371</v>
       </c>
       <c r="I198" s="16"/>
     </row>
     <row r="199" spans="1:9" s="17" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="A199" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="B199" s="21" t="s">
         <v>372</v>
       </c>
-      <c r="B199" s="21" t="s">
+      <c r="C199" s="19" t="s">
         <v>373</v>
       </c>
-      <c r="C199" s="19" t="s">
+      <c r="D199" s="18" t="s">
+        <v>678</v>
+      </c>
+      <c r="E199" s="16" t="s">
         <v>374</v>
       </c>
-      <c r="D199" s="18" t="s">
-        <v>687</v>
-      </c>
-      <c r="E199" s="16" t="s">
+      <c r="F199" s="16" t="s">
         <v>375</v>
       </c>
-      <c r="F199" s="16" t="s">
+      <c r="G199" s="18" t="s">
         <v>376</v>
       </c>
-      <c r="G199" s="18" t="s">
+      <c r="H199" s="16" t="s">
         <v>377</v>
-      </c>
-      <c r="H199" s="16" t="s">
-        <v>378</v>
       </c>
       <c r="I199" s="16"/>
     </row>
@@ -14176,16 +14203,16 @@
     <row r="201" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A201" s="16"/>
       <c r="B201" s="15" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="C201" s="19"/>
       <c r="D201" s="18" t="s">
-        <v>649</v>
+        <v>640</v>
       </c>
       <c r="E201" s="16"/>
       <c r="F201" s="16"/>
       <c r="G201" s="18" t="s">
-        <v>636</v>
+        <v>627</v>
       </c>
       <c r="H201" s="16"/>
       <c r="I201" s="16"/>
@@ -14219,7 +14246,7 @@
     </row>
     <row r="203" spans="1:9" s="17" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="A203" s="16" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B203" s="16" t="s">
         <v>214</v>
@@ -14228,10 +14255,10 @@
         <v>215</v>
       </c>
       <c r="D203" s="18" t="s">
-        <v>688</v>
+        <v>679</v>
       </c>
       <c r="E203" s="18" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
       <c r="F203" s="16" t="s">
         <v>204</v>
@@ -14246,13 +14273,13 @@
     </row>
     <row r="204" spans="1:9" s="17" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="A204" s="16" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B204" s="16" t="s">
         <v>220</v>
       </c>
       <c r="C204" s="16" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D204" s="18" t="s">
         <v>220</v>
@@ -14267,7 +14294,7 @@
         <v>223</v>
       </c>
       <c r="H204" s="22" t="s">
-        <v>690</v>
+        <v>681</v>
       </c>
       <c r="I204" s="16"/>
     </row>
@@ -14287,15 +14314,15 @@
       <c r="B206" s="14"/>
       <c r="C206" s="14"/>
       <c r="D206" s="15" t="s">
-        <v>649</v>
+        <v>640</v>
       </c>
       <c r="E206" s="15" t="s">
-        <v>649</v>
+        <v>640</v>
       </c>
       <c r="F206" s="14"/>
       <c r="G206" s="14"/>
       <c r="H206" s="23" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="I206" s="16"/>
     </row>
@@ -14328,7 +14355,7 @@
     </row>
     <row r="208" spans="1:9" s="17" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="A208" s="16" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B208" s="16" t="s">
         <v>236</v>
@@ -14337,10 +14364,10 @@
         <v>10</v>
       </c>
       <c r="D208" s="18" t="s">
-        <v>691</v>
+        <v>682</v>
       </c>
       <c r="E208" s="18" t="s">
-        <v>692</v>
+        <v>683</v>
       </c>
       <c r="F208" s="16" t="s">
         <v>237</v>
@@ -14349,13 +14376,13 @@
         <v>238</v>
       </c>
       <c r="H208" s="16" t="s">
-        <v>693</v>
+        <v>684</v>
       </c>
       <c r="I208" s="16"/>
     </row>
     <row r="209" spans="1:9" s="17" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="A209" s="16" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B209" s="16" t="s">
         <v>241</v>
@@ -14376,7 +14403,7 @@
         <v>245</v>
       </c>
       <c r="H209" s="16" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I209" s="16"/>
     </row>
@@ -14396,15 +14423,15 @@
       <c r="B211" s="16"/>
       <c r="C211" s="19"/>
       <c r="D211" s="15" t="s">
-        <v>649</v>
+        <v>640</v>
       </c>
       <c r="E211" s="15" t="s">
-        <v>649</v>
+        <v>640</v>
       </c>
       <c r="F211" s="16"/>
       <c r="G211" s="16"/>
       <c r="H211" s="14" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="I211" s="16"/>
     </row>
@@ -14437,7 +14464,7 @@
     </row>
     <row r="213" spans="1:9" s="17" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="A213" s="16" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B213" s="16" t="s">
         <v>236</v>
@@ -14446,7 +14473,7 @@
         <v>253</v>
       </c>
       <c r="D213" s="16" t="s">
-        <v>695</v>
+        <v>686</v>
       </c>
       <c r="E213" s="16" t="s">
         <v>254</v>
@@ -14458,13 +14485,13 @@
         <v>238</v>
       </c>
       <c r="H213" s="16" t="s">
-        <v>696</v>
+        <v>687</v>
       </c>
       <c r="I213" s="16"/>
     </row>
     <row r="214" spans="1:9" s="17" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="A214" s="16" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B214" s="16" t="s">
         <v>241</v>
@@ -14479,13 +14506,13 @@
         <v>244</v>
       </c>
       <c r="F214" s="16" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G214" s="16" t="s">
         <v>245</v>
       </c>
       <c r="H214" s="16" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I214" s="16"/>
     </row>
@@ -14504,14 +14531,14 @@
       <c r="A216" s="16"/>
       <c r="B216" s="14"/>
       <c r="C216" s="20" t="s">
-        <v>694</v>
+        <v>685</v>
       </c>
       <c r="D216" s="14"/>
       <c r="E216" s="14"/>
       <c r="F216" s="14"/>
       <c r="G216" s="14"/>
       <c r="H216" s="14" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="I216" s="16"/>
     </row>
@@ -14544,16 +14571,16 @@
     </row>
     <row r="218" spans="1:9" s="17" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A218" s="16" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B218" s="18" t="s">
-        <v>697</v>
+        <v>688</v>
       </c>
       <c r="C218" s="16" t="s">
         <v>270</v>
       </c>
       <c r="D218" s="18" t="s">
-        <v>699</v>
+        <v>690</v>
       </c>
       <c r="E218" s="16" t="s">
         <v>271</v>
@@ -14571,16 +14598,16 @@
     </row>
     <row r="219" spans="1:9" s="17" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A219" s="16" t="s">
+        <v>387</v>
+      </c>
+      <c r="B219" s="18" t="s">
+        <v>689</v>
+      </c>
+      <c r="C219" s="16" t="s">
         <v>388</v>
       </c>
-      <c r="B219" s="18" t="s">
-        <v>698</v>
-      </c>
-      <c r="C219" s="16" t="s">
-        <v>389</v>
-      </c>
       <c r="D219" s="18" t="s">
-        <v>700</v>
+        <v>691</v>
       </c>
       <c r="E219" s="16" t="s">
         <v>277</v>
@@ -14610,11 +14637,11 @@
     <row r="221" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A221" s="16"/>
       <c r="B221" s="15" t="s">
-        <v>669</v>
+        <v>660</v>
       </c>
       <c r="C221" s="14"/>
       <c r="D221" s="15" t="s">
-        <v>669</v>
+        <v>660</v>
       </c>
       <c r="E221" s="16"/>
       <c r="F221" s="16"/>
@@ -14651,55 +14678,55 @@
     </row>
     <row r="223" spans="1:9" s="17" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="A223" s="16" t="s">
+        <v>389</v>
+      </c>
+      <c r="B223" s="16" t="s">
         <v>390</v>
-      </c>
-      <c r="B223" s="16" t="s">
-        <v>391</v>
       </c>
       <c r="C223" s="19" t="s">
         <v>10</v>
       </c>
       <c r="D223" s="16" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E223" s="16" t="s">
         <v>46</v>
       </c>
       <c r="F223" s="18" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G223" s="18" t="s">
         <v>39</v>
       </c>
       <c r="H223" s="18" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="I223" s="16"/>
     </row>
     <row r="224" spans="1:9" s="17" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="A224" s="16" t="s">
+        <v>394</v>
+      </c>
+      <c r="B224" s="16" t="s">
+        <v>692</v>
+      </c>
+      <c r="C224" s="19" t="s">
         <v>395</v>
       </c>
-      <c r="B224" s="16" t="s">
-        <v>701</v>
-      </c>
-      <c r="C224" s="19" t="s">
+      <c r="D224" s="16" t="s">
         <v>396</v>
       </c>
-      <c r="D224" s="16" t="s">
+      <c r="E224" s="16" t="s">
         <v>397</v>
       </c>
-      <c r="E224" s="16" t="s">
+      <c r="F224" s="18" t="s">
         <v>398</v>
-      </c>
-      <c r="F224" s="18" t="s">
-        <v>399</v>
       </c>
       <c r="G224" s="18" t="s">
         <v>245</v>
       </c>
       <c r="H224" s="18" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="I224" s="16"/>
     </row>
@@ -14717,16 +14744,16 @@
     <row r="226" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A226" s="16"/>
       <c r="B226" s="14" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="C226" s="20" t="s">
-        <v>702</v>
+        <v>693</v>
       </c>
       <c r="D226" s="14"/>
       <c r="E226" s="14"/>
       <c r="F226" s="15"/>
       <c r="G226" s="15" t="s">
-        <v>636</v>
+        <v>627</v>
       </c>
       <c r="H226" s="15"/>
       <c r="I226" s="16"/>
@@ -14760,55 +14787,55 @@
     </row>
     <row r="228" spans="1:9" s="17" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="A228" s="16" t="s">
+        <v>400</v>
+      </c>
+      <c r="B228" s="18" t="s">
         <v>401</v>
       </c>
-      <c r="B228" s="18" t="s">
+      <c r="C228" s="16" t="s">
         <v>402</v>
       </c>
-      <c r="C228" s="16" t="s">
+      <c r="D228" s="16" t="s">
         <v>403</v>
       </c>
-      <c r="D228" s="16" t="s">
+      <c r="E228" s="16" t="s">
         <v>404</v>
       </c>
-      <c r="E228" s="16" t="s">
+      <c r="F228" s="18" t="s">
         <v>405</v>
-      </c>
-      <c r="F228" s="18" t="s">
-        <v>406</v>
       </c>
       <c r="G228" s="16" t="s">
         <v>238</v>
       </c>
       <c r="H228" s="18" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I228" s="16"/>
     </row>
     <row r="229" spans="1:9" s="17" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="A229" s="16" t="s">
+        <v>407</v>
+      </c>
+      <c r="B229" s="18" t="s">
+        <v>696</v>
+      </c>
+      <c r="C229" s="16" t="s">
         <v>408</v>
       </c>
-      <c r="B229" s="18" t="s">
-        <v>705</v>
-      </c>
-      <c r="C229" s="16" t="s">
+      <c r="D229" s="16" t="s">
         <v>409</v>
       </c>
-      <c r="D229" s="16" t="s">
+      <c r="E229" s="16" t="s">
         <v>410</v>
       </c>
-      <c r="E229" s="16" t="s">
+      <c r="F229" s="18" t="s">
         <v>411</v>
-      </c>
-      <c r="F229" s="18" t="s">
-        <v>412</v>
       </c>
       <c r="G229" s="16" t="s">
         <v>245</v>
       </c>
       <c r="H229" s="18" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="I229" s="16"/>
     </row>
@@ -14826,17 +14853,17 @@
     <row r="231" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A231" s="16"/>
       <c r="B231" s="15" t="s">
-        <v>636</v>
+        <v>627</v>
       </c>
       <c r="C231" s="14"/>
       <c r="D231" s="14"/>
       <c r="E231" s="14"/>
       <c r="F231" s="15" t="s">
-        <v>636</v>
+        <v>627</v>
       </c>
       <c r="G231" s="14"/>
       <c r="H231" s="15" t="s">
-        <v>703</v>
+        <v>694</v>
       </c>
       <c r="I231" s="16"/>
     </row>
@@ -14869,55 +14896,55 @@
     </row>
     <row r="233" spans="1:9" s="17" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="A233" s="16" t="s">
+        <v>413</v>
+      </c>
+      <c r="B233" s="18" t="s">
         <v>414</v>
       </c>
-      <c r="B233" s="18" t="s">
+      <c r="C233" s="16" t="s">
+        <v>402</v>
+      </c>
+      <c r="D233" s="16" t="s">
         <v>415</v>
       </c>
-      <c r="C233" s="16" t="s">
-        <v>403</v>
-      </c>
-      <c r="D233" s="16" t="s">
+      <c r="E233" s="16" t="s">
+        <v>404</v>
+      </c>
+      <c r="F233" s="18" t="s">
         <v>416</v>
       </c>
-      <c r="E233" s="16" t="s">
-        <v>405</v>
-      </c>
-      <c r="F233" s="18" t="s">
+      <c r="G233" s="16" t="s">
         <v>417</v>
       </c>
-      <c r="G233" s="16" t="s">
-        <v>418</v>
-      </c>
       <c r="H233" s="18" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="I233" s="16"/>
     </row>
     <row r="234" spans="1:9" s="17" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="A234" s="16" t="s">
+        <v>418</v>
+      </c>
+      <c r="B234" s="18" t="s">
+        <v>695</v>
+      </c>
+      <c r="C234" s="16" t="s">
+        <v>408</v>
+      </c>
+      <c r="D234" s="16" t="s">
         <v>419</v>
       </c>
-      <c r="B234" s="18" t="s">
-        <v>704</v>
-      </c>
-      <c r="C234" s="16" t="s">
-        <v>409</v>
-      </c>
-      <c r="D234" s="16" t="s">
+      <c r="E234" s="16" t="s">
+        <v>410</v>
+      </c>
+      <c r="F234" s="18" t="s">
+        <v>411</v>
+      </c>
+      <c r="G234" s="16" t="s">
         <v>420</v>
       </c>
-      <c r="E234" s="16" t="s">
-        <v>411</v>
-      </c>
-      <c r="F234" s="18" t="s">
-        <v>412</v>
-      </c>
-      <c r="G234" s="16" t="s">
+      <c r="H234" s="18" t="s">
         <v>421</v>
-      </c>
-      <c r="H234" s="18" t="s">
-        <v>422</v>
       </c>
       <c r="I234" s="16"/>
     </row>
@@ -14935,17 +14962,17 @@
     <row r="236" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A236" s="16"/>
       <c r="B236" s="15" t="s">
-        <v>636</v>
+        <v>627</v>
       </c>
       <c r="C236" s="16"/>
       <c r="D236" s="16"/>
       <c r="E236" s="16"/>
       <c r="F236" s="15" t="s">
-        <v>636</v>
+        <v>627</v>
       </c>
       <c r="G236" s="14"/>
       <c r="H236" s="15" t="s">
-        <v>703</v>
+        <v>694</v>
       </c>
       <c r="I236" s="16"/>
     </row>
@@ -14976,52 +15003,50 @@
         <v>79.099999999999994</v>
       </c>
     </row>
-    <row r="238" spans="1:9" s="17" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A238" s="19" t="s">
-        <v>423</v>
+    <row r="238" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A238" s="28" t="s">
+        <v>422</v>
       </c>
       <c r="B238" s="19"/>
       <c r="C238" s="16" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D238" s="19"/>
       <c r="E238" s="19"/>
       <c r="F238" s="19"/>
       <c r="G238" s="18" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H238" s="19"/>
       <c r="I238" s="16"/>
     </row>
     <row r="239" spans="1:9" s="17" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A239" s="19" t="s">
+      <c r="A239" s="29"/>
+      <c r="B239" s="19" t="s">
+        <v>425</v>
+      </c>
+      <c r="C239" s="16" t="s">
         <v>426</v>
       </c>
-      <c r="B239" s="19" t="s">
+      <c r="D239" s="19" t="s">
+        <v>425</v>
+      </c>
+      <c r="E239" s="19" t="s">
+        <v>397</v>
+      </c>
+      <c r="F239" s="19" t="s">
+        <v>398</v>
+      </c>
+      <c r="G239" s="18" t="s">
+        <v>420</v>
+      </c>
+      <c r="H239" s="19" t="s">
         <v>427</v>
       </c>
-      <c r="C239" s="16" t="s">
-        <v>428</v>
-      </c>
-      <c r="D239" s="19" t="s">
-        <v>427</v>
-      </c>
-      <c r="E239" s="19" t="s">
-        <v>398</v>
-      </c>
-      <c r="F239" s="19" t="s">
-        <v>399</v>
-      </c>
-      <c r="G239" s="18" t="s">
-        <v>421</v>
-      </c>
-      <c r="H239" s="19" t="s">
-        <v>429</v>
-      </c>
       <c r="I239" s="16"/>
     </row>
     <row r="240" spans="1:9" s="17" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A240" s="19"/>
+      <c r="A240" s="29"/>
       <c r="B240" s="19"/>
       <c r="C240" s="16"/>
       <c r="D240" s="19"/>
@@ -15032,23 +15057,23 @@
       <c r="I240" s="16"/>
     </row>
     <row r="241" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A241" s="19"/>
+      <c r="A241" s="30"/>
       <c r="B241" s="20" t="s">
-        <v>706</v>
+        <v>697</v>
       </c>
       <c r="C241" s="16"/>
       <c r="D241" s="20" t="s">
-        <v>706</v>
+        <v>697</v>
       </c>
       <c r="E241" s="20" t="s">
-        <v>706</v>
+        <v>697</v>
       </c>
       <c r="F241" s="20" t="s">
-        <v>706</v>
+        <v>697</v>
       </c>
       <c r="G241" s="18"/>
       <c r="H241" s="20" t="s">
-        <v>706</v>
+        <v>697</v>
       </c>
       <c r="I241" s="16"/>
     </row>
@@ -15081,55 +15106,55 @@
     </row>
     <row r="243" spans="1:9" s="17" customFormat="1" ht="36" x14ac:dyDescent="0.3">
       <c r="A243" s="16" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B243" s="16" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C243" s="19" t="s">
         <v>10</v>
       </c>
       <c r="D243" s="16" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E243" s="16" t="s">
         <v>46</v>
       </c>
       <c r="F243" s="18" t="s">
-        <v>709</v>
+        <v>700</v>
       </c>
       <c r="G243" s="18" t="s">
         <v>39</v>
       </c>
       <c r="H243" s="16" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="I243" s="16"/>
     </row>
     <row r="244" spans="1:9" s="17" customFormat="1" ht="36" x14ac:dyDescent="0.3">
       <c r="A244" s="16" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B244" s="16" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C244" s="19" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D244" s="16" t="s">
-        <v>707</v>
+        <v>698</v>
       </c>
       <c r="E244" s="16" t="s">
+        <v>397</v>
+      </c>
+      <c r="F244" s="18" t="s">
         <v>398</v>
-      </c>
-      <c r="F244" s="18" t="s">
-        <v>399</v>
       </c>
       <c r="G244" s="18" t="s">
         <v>245</v>
       </c>
       <c r="H244" s="16" t="s">
-        <v>708</v>
+        <v>699</v>
       </c>
       <c r="I244" s="16"/>
     </row>
@@ -15148,20 +15173,20 @@
       <c r="A246" s="16"/>
       <c r="B246" s="16"/>
       <c r="C246" s="20" t="s">
-        <v>706</v>
+        <v>697</v>
       </c>
       <c r="D246" s="14" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="E246" s="16"/>
       <c r="F246" s="15" t="s">
-        <v>649</v>
+        <v>640</v>
       </c>
       <c r="G246" s="15" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="H246" s="14" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="I246" s="16"/>
     </row>
@@ -15194,51 +15219,51 @@
     </row>
     <row r="248" spans="1:9" s="17" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="A248" s="16" t="s">
+        <v>434</v>
+      </c>
+      <c r="B248" s="16" t="s">
+        <v>435</v>
+      </c>
+      <c r="C248" s="19" t="s">
         <v>436</v>
-      </c>
-      <c r="B248" s="16" t="s">
-        <v>437</v>
-      </c>
-      <c r="C248" s="19" t="s">
-        <v>438</v>
       </c>
       <c r="D248" s="16" t="s">
         <v>31</v>
       </c>
       <c r="E248" s="18"/>
       <c r="F248" s="16" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="G248" s="19"/>
       <c r="H248" s="16" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="I248" s="16"/>
     </row>
     <row r="249" spans="1:9" s="17" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="A249" s="16" t="s">
+        <v>749</v>
+      </c>
+      <c r="B249" s="16" t="s">
+        <v>439</v>
+      </c>
+      <c r="C249" s="19" t="s">
+        <v>440</v>
+      </c>
+      <c r="D249" s="16" t="s">
         <v>441</v>
       </c>
-      <c r="B249" s="16" t="s">
+      <c r="E249" s="18" t="s">
         <v>442</v>
       </c>
-      <c r="C249" s="19" t="s">
+      <c r="F249" s="16" t="s">
         <v>443</v>
       </c>
-      <c r="D249" s="16" t="s">
+      <c r="G249" s="19" t="s">
         <v>444</v>
       </c>
-      <c r="E249" s="18" t="s">
+      <c r="H249" s="16" t="s">
         <v>445</v>
-      </c>
-      <c r="F249" s="16" t="s">
-        <v>446</v>
-      </c>
-      <c r="G249" s="19" t="s">
-        <v>447</v>
-      </c>
-      <c r="H249" s="16" t="s">
-        <v>448</v>
       </c>
       <c r="I249" s="16"/>
     </row>
@@ -15257,13 +15282,13 @@
       <c r="A251" s="16"/>
       <c r="B251" s="16"/>
       <c r="C251" s="20" t="s">
-        <v>706</v>
+        <v>697</v>
       </c>
       <c r="D251" s="16"/>
       <c r="E251" s="18"/>
       <c r="F251" s="16"/>
       <c r="G251" s="20" t="s">
-        <v>706</v>
+        <v>697</v>
       </c>
       <c r="H251" s="16"/>
       <c r="I251" s="16"/>
@@ -15297,10 +15322,10 @@
     </row>
     <row r="253" spans="1:9" s="17" customFormat="1" ht="36" x14ac:dyDescent="0.3">
       <c r="A253" s="16" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B253" s="18" t="s">
-        <v>712</v>
+        <v>703</v>
       </c>
       <c r="C253" s="18" t="s">
         <v>10</v>
@@ -15310,31 +15335,31 @@
       </c>
       <c r="E253" s="18"/>
       <c r="F253" s="16" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="G253" s="18" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="H253" s="18" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="I253" s="16"/>
     </row>
     <row r="254" spans="1:9" s="17" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="A254" s="16" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B254" s="18" t="s">
-        <v>711</v>
+        <v>702</v>
       </c>
       <c r="C254" s="18" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="D254" s="16" t="s">
         <v>16</v>
       </c>
       <c r="E254" s="18" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="F254" s="16" t="s">
         <v>198</v>
@@ -15343,7 +15368,7 @@
         <v>312</v>
       </c>
       <c r="H254" s="18" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="I254" s="16"/>
     </row>
@@ -15361,7 +15386,7 @@
     <row r="256" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A256" s="16"/>
       <c r="B256" s="18" t="s">
-        <v>649</v>
+        <v>640</v>
       </c>
       <c r="C256" s="18"/>
       <c r="D256" s="16"/>
@@ -15400,53 +15425,53 @@
     </row>
     <row r="258" spans="1:9" s="17" customFormat="1" ht="36" x14ac:dyDescent="0.3">
       <c r="A258" s="16" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B258" s="16" t="s">
         <v>188</v>
       </c>
       <c r="C258" s="16" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="D258" s="16" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="E258" s="16" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="F258" s="18"/>
       <c r="G258" s="18" t="s">
-        <v>713</v>
+        <v>704</v>
       </c>
       <c r="H258" s="16" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="I258" s="16"/>
     </row>
     <row r="259" spans="1:9" s="17" customFormat="1" ht="36" x14ac:dyDescent="0.3">
       <c r="A259" s="16" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="B259" s="16" t="s">
         <v>194</v>
       </c>
       <c r="C259" s="16" t="s">
+        <v>460</v>
+      </c>
+      <c r="D259" s="16" t="s">
+        <v>461</v>
+      </c>
+      <c r="E259" s="16" t="s">
+        <v>462</v>
+      </c>
+      <c r="F259" s="18" t="s">
         <v>463</v>
-      </c>
-      <c r="D259" s="16" t="s">
-        <v>464</v>
-      </c>
-      <c r="E259" s="16" t="s">
-        <v>465</v>
-      </c>
-      <c r="F259" s="18" t="s">
-        <v>466</v>
       </c>
       <c r="G259" s="18" t="s">
         <v>279</v>
       </c>
       <c r="H259" s="16" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="I259" s="16"/>
     </row>
@@ -15469,7 +15494,7 @@
       <c r="E261" s="16"/>
       <c r="F261" s="18"/>
       <c r="G261" s="15" t="s">
-        <v>649</v>
+        <v>640</v>
       </c>
       <c r="H261" s="16"/>
       <c r="I261" s="16"/>
@@ -15503,55 +15528,55 @@
     </row>
     <row r="263" spans="1:9" s="17" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A263" s="16" t="s">
+        <v>465</v>
+      </c>
+      <c r="B263" s="16" t="s">
+        <v>466</v>
+      </c>
+      <c r="C263" s="16" t="s">
+        <v>467</v>
+      </c>
+      <c r="D263" s="18" t="s">
+        <v>705</v>
+      </c>
+      <c r="E263" s="16" t="s">
         <v>468</v>
       </c>
-      <c r="B263" s="16" t="s">
+      <c r="F263" s="16" t="s">
         <v>469</v>
       </c>
-      <c r="C263" s="16" t="s">
+      <c r="G263" s="16" t="s">
         <v>470</v>
       </c>
-      <c r="D263" s="18" t="s">
-        <v>714</v>
-      </c>
-      <c r="E263" s="16" t="s">
+      <c r="H263" s="16" t="s">
         <v>471</v>
-      </c>
-      <c r="F263" s="16" t="s">
-        <v>472</v>
-      </c>
-      <c r="G263" s="16" t="s">
-        <v>473</v>
-      </c>
-      <c r="H263" s="16" t="s">
-        <v>474</v>
       </c>
       <c r="I263" s="16"/>
     </row>
     <row r="264" spans="1:9" s="17" customFormat="1" ht="36" x14ac:dyDescent="0.3">
       <c r="A264" s="16" t="s">
+        <v>472</v>
+      </c>
+      <c r="B264" s="16" t="s">
+        <v>473</v>
+      </c>
+      <c r="C264" s="16" t="s">
+        <v>474</v>
+      </c>
+      <c r="D264" s="18" t="s">
         <v>475</v>
       </c>
-      <c r="B264" s="16" t="s">
+      <c r="E264" s="16" t="s">
         <v>476</v>
       </c>
-      <c r="C264" s="16" t="s">
+      <c r="F264" s="16" t="s">
         <v>477</v>
       </c>
-      <c r="D264" s="18" t="s">
+      <c r="G264" s="16" t="s">
         <v>478</v>
       </c>
-      <c r="E264" s="16" t="s">
+      <c r="H264" s="16" t="s">
         <v>479</v>
-      </c>
-      <c r="F264" s="16" t="s">
-        <v>480</v>
-      </c>
-      <c r="G264" s="16" t="s">
-        <v>481</v>
-      </c>
-      <c r="H264" s="16" t="s">
-        <v>482</v>
       </c>
       <c r="I264" s="16"/>
     </row>
@@ -15571,7 +15596,7 @@
       <c r="B266" s="16"/>
       <c r="C266" s="16"/>
       <c r="D266" s="15" t="s">
-        <v>649</v>
+        <v>640</v>
       </c>
       <c r="E266" s="16"/>
       <c r="F266" s="16"/>
@@ -15608,55 +15633,55 @@
     </row>
     <row r="268" spans="1:9" s="17" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="A268" s="16" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="B268" s="16" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="C268" s="18" t="s">
         <v>10</v>
       </c>
       <c r="D268" s="16" t="s">
+        <v>482</v>
+      </c>
+      <c r="E268" s="16" t="s">
+        <v>483</v>
+      </c>
+      <c r="F268" s="16" t="s">
+        <v>484</v>
+      </c>
+      <c r="G268" s="16" t="s">
         <v>485</v>
       </c>
-      <c r="E268" s="16" t="s">
+      <c r="H268" s="16" t="s">
         <v>486</v>
-      </c>
-      <c r="F268" s="16" t="s">
-        <v>487</v>
-      </c>
-      <c r="G268" s="16" t="s">
-        <v>488</v>
-      </c>
-      <c r="H268" s="16" t="s">
-        <v>489</v>
       </c>
       <c r="I268" s="16"/>
     </row>
     <row r="269" spans="1:9" s="17" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="A269" s="16" t="s">
+        <v>487</v>
+      </c>
+      <c r="B269" s="16" t="s">
+        <v>488</v>
+      </c>
+      <c r="C269" s="18" t="s">
+        <v>344</v>
+      </c>
+      <c r="D269" s="16" t="s">
+        <v>489</v>
+      </c>
+      <c r="E269" s="16" t="s">
         <v>490</v>
       </c>
-      <c r="B269" s="16" t="s">
+      <c r="F269" s="16" t="s">
         <v>491</v>
-      </c>
-      <c r="C269" s="18" t="s">
-        <v>345</v>
-      </c>
-      <c r="D269" s="16" t="s">
-        <v>492</v>
-      </c>
-      <c r="E269" s="16" t="s">
-        <v>493</v>
-      </c>
-      <c r="F269" s="16" t="s">
-        <v>494</v>
       </c>
       <c r="G269" s="16" t="s">
         <v>301</v>
       </c>
       <c r="H269" s="16" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
       <c r="I269" s="16"/>
     </row>
@@ -15680,7 +15705,7 @@
       <c r="F271" s="16"/>
       <c r="G271" s="16"/>
       <c r="H271" s="14" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="I271" s="16"/>
     </row>
@@ -15713,55 +15738,55 @@
     </row>
     <row r="273" spans="1:9" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.3">
       <c r="A273" s="16" t="s">
+        <v>492</v>
+      </c>
+      <c r="B273" s="16" t="s">
+        <v>493</v>
+      </c>
+      <c r="C273" s="16" t="s">
+        <v>349</v>
+      </c>
+      <c r="D273" s="18" t="s">
+        <v>708</v>
+      </c>
+      <c r="E273" s="16" t="s">
+        <v>494</v>
+      </c>
+      <c r="F273" s="16" t="s">
+        <v>469</v>
+      </c>
+      <c r="G273" s="16" t="s">
         <v>495</v>
       </c>
-      <c r="B273" s="16" t="s">
+      <c r="H273" s="16" t="s">
         <v>496</v>
-      </c>
-      <c r="C273" s="16" t="s">
-        <v>350</v>
-      </c>
-      <c r="D273" s="18" t="s">
-        <v>717</v>
-      </c>
-      <c r="E273" s="16" t="s">
-        <v>497</v>
-      </c>
-      <c r="F273" s="16" t="s">
-        <v>472</v>
-      </c>
-      <c r="G273" s="16" t="s">
-        <v>498</v>
-      </c>
-      <c r="H273" s="16" t="s">
-        <v>499</v>
       </c>
       <c r="I273" s="16"/>
     </row>
     <row r="274" spans="1:9" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.3">
       <c r="A274" s="16" t="s">
+        <v>497</v>
+      </c>
+      <c r="B274" s="16" t="s">
+        <v>498</v>
+      </c>
+      <c r="C274" s="16" t="s">
+        <v>344</v>
+      </c>
+      <c r="D274" s="18" t="s">
+        <v>707</v>
+      </c>
+      <c r="E274" s="16" t="s">
+        <v>499</v>
+      </c>
+      <c r="F274" s="16" t="s">
+        <v>477</v>
+      </c>
+      <c r="G274" s="16" t="s">
         <v>500</v>
       </c>
-      <c r="B274" s="16" t="s">
-        <v>501</v>
-      </c>
-      <c r="C274" s="16" t="s">
-        <v>345</v>
-      </c>
-      <c r="D274" s="18" t="s">
-        <v>716</v>
-      </c>
-      <c r="E274" s="16" t="s">
-        <v>502</v>
-      </c>
-      <c r="F274" s="16" t="s">
-        <v>480</v>
-      </c>
-      <c r="G274" s="16" t="s">
-        <v>503</v>
-      </c>
       <c r="H274" s="16" t="s">
-        <v>718</v>
+        <v>709</v>
       </c>
       <c r="I274" s="16"/>
     </row>
@@ -15781,13 +15806,13 @@
       <c r="B276" s="16"/>
       <c r="C276" s="16"/>
       <c r="D276" s="18" t="s">
-        <v>649</v>
+        <v>640</v>
       </c>
       <c r="E276" s="16"/>
       <c r="F276" s="16"/>
       <c r="G276" s="16"/>
       <c r="H276" s="14" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="I276" s="16"/>
     </row>
@@ -15819,17 +15844,17 @@
       </c>
     </row>
     <row r="278" spans="1:9" s="17" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A278" s="19" t="s">
-        <v>504</v>
+      <c r="A278" s="28" t="s">
+        <v>501</v>
       </c>
       <c r="B278" s="18" t="s">
-        <v>719</v>
+        <v>710</v>
       </c>
       <c r="C278" s="16" t="s">
         <v>10</v>
       </c>
       <c r="D278" s="19" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="E278" s="16"/>
       <c r="F278" s="16"/>
@@ -15838,15 +15863,13 @@
       <c r="I278" s="16"/>
     </row>
     <row r="279" spans="1:9" s="17" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A279" s="19" t="s">
-        <v>506</v>
-      </c>
+      <c r="A279" s="29"/>
       <c r="B279" s="18" t="s">
-        <v>720</v>
+        <v>711</v>
       </c>
       <c r="C279" s="16"/>
       <c r="D279" s="19" t="s">
-        <v>721</v>
+        <v>712</v>
       </c>
       <c r="E279" s="16"/>
       <c r="F279" s="16"/>
@@ -15855,7 +15878,7 @@
       <c r="I279" s="16"/>
     </row>
     <row r="280" spans="1:9" s="17" customFormat="1" ht="72.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A280" s="19"/>
+      <c r="A280" s="29"/>
       <c r="B280" s="18"/>
       <c r="C280" s="16"/>
       <c r="D280" s="19"/>
@@ -15866,15 +15889,13 @@
       <c r="I280" s="16"/>
     </row>
     <row r="281" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A281" s="19" t="s">
-        <v>722</v>
-      </c>
+      <c r="A281" s="30"/>
       <c r="B281" s="18" t="s">
-        <v>649</v>
+        <v>640</v>
       </c>
       <c r="C281" s="16"/>
       <c r="D281" s="19" t="s">
-        <v>636</v>
+        <v>627</v>
       </c>
       <c r="E281" s="16"/>
       <c r="F281" s="16"/>
@@ -15911,53 +15932,53 @@
     </row>
     <row r="283" spans="1:9" s="17" customFormat="1" ht="36" x14ac:dyDescent="0.3">
       <c r="A283" s="16" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="B283" s="18" t="s">
-        <v>724</v>
+        <v>714</v>
       </c>
       <c r="C283" s="18" t="s">
         <v>10</v>
       </c>
       <c r="D283" s="18" t="s">
-        <v>725</v>
+        <v>715</v>
       </c>
       <c r="E283" s="16" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="F283" s="16" t="s">
         <v>192</v>
       </c>
       <c r="G283" s="18"/>
       <c r="H283" s="16" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="I283" s="16"/>
     </row>
     <row r="284" spans="1:9" s="17" customFormat="1" ht="36" x14ac:dyDescent="0.3">
       <c r="A284" s="16" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B284" s="18" t="s">
-        <v>723</v>
+        <v>713</v>
       </c>
       <c r="C284" s="18" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="D284" s="18" t="s">
-        <v>726</v>
+        <v>716</v>
       </c>
       <c r="E284" s="16" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="F284" s="16" t="s">
         <v>198</v>
       </c>
       <c r="G284" s="18" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="H284" s="16" t="s">
-        <v>727</v>
+        <v>717</v>
       </c>
       <c r="I284" s="16"/>
     </row>
@@ -15975,17 +15996,17 @@
     <row r="286" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A286" s="16"/>
       <c r="B286" s="18" t="s">
-        <v>649</v>
+        <v>640</v>
       </c>
       <c r="C286" s="18"/>
       <c r="D286" s="18" t="s">
-        <v>649</v>
+        <v>640</v>
       </c>
       <c r="E286" s="16"/>
       <c r="F286" s="16"/>
       <c r="G286" s="18"/>
       <c r="H286" s="16" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="I286" s="16"/>
     </row>
@@ -16018,53 +16039,53 @@
     </row>
     <row r="288" spans="1:9" s="17" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="A288" s="16" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="B288" s="16" t="s">
-        <v>728</v>
+        <v>718</v>
       </c>
       <c r="C288" s="16" t="s">
         <v>10</v>
       </c>
       <c r="D288" s="18" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="E288" s="16" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="F288" s="16" t="s">
-        <v>731</v>
+        <v>721</v>
       </c>
       <c r="G288" s="16" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="H288" s="16" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="I288" s="16"/>
     </row>
     <row r="289" spans="1:9" s="17" customFormat="1" ht="36" x14ac:dyDescent="0.3">
       <c r="A289" s="16" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="B289" s="16" t="s">
-        <v>729</v>
+        <v>719</v>
       </c>
       <c r="C289" s="16"/>
       <c r="D289" s="18" t="s">
-        <v>730</v>
+        <v>720</v>
       </c>
       <c r="E289" s="16" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="F289" s="16" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="G289" s="16" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="H289" s="16" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="I289" s="16"/>
     </row>
@@ -16084,11 +16105,11 @@
       <c r="B291" s="16"/>
       <c r="C291" s="16"/>
       <c r="D291" s="18" t="s">
-        <v>636</v>
+        <v>627</v>
       </c>
       <c r="E291" s="16"/>
       <c r="F291" s="16" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="G291" s="16"/>
       <c r="H291" s="16"/>
@@ -16123,51 +16144,51 @@
     </row>
     <row r="293" spans="1:9" s="17" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="A293" s="16" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="B293" s="16" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="C293" s="16" t="s">
         <v>10</v>
       </c>
       <c r="D293" s="16" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="E293" s="16" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="F293" s="16" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="G293" s="18"/>
       <c r="H293" s="16" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="I293" s="16"/>
     </row>
     <row r="294" spans="1:9" s="17" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="A294" s="16" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="B294" s="16" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="C294" s="16"/>
       <c r="D294" s="16" t="s">
+        <v>520</v>
+      </c>
+      <c r="E294" s="16" t="s">
+        <v>521</v>
+      </c>
+      <c r="F294" s="16" t="s">
+        <v>522</v>
+      </c>
+      <c r="G294" s="18" t="s">
+        <v>523</v>
+      </c>
+      <c r="H294" s="16" t="s">
         <v>524</v>
-      </c>
-      <c r="E294" s="16" t="s">
-        <v>525</v>
-      </c>
-      <c r="F294" s="16" t="s">
-        <v>526</v>
-      </c>
-      <c r="G294" s="18" t="s">
-        <v>527</v>
-      </c>
-      <c r="H294" s="16" t="s">
-        <v>528</v>
       </c>
       <c r="I294" s="16"/>
     </row>
@@ -16190,7 +16211,7 @@
       <c r="E296" s="16"/>
       <c r="F296" s="16"/>
       <c r="G296" s="18" t="s">
-        <v>636</v>
+        <v>627</v>
       </c>
       <c r="H296" s="16"/>
       <c r="I296" s="16"/>
@@ -16224,51 +16245,51 @@
     </row>
     <row r="298" spans="1:9" s="17" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="A298" s="16" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="B298" s="16" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="C298" s="16" t="s">
         <v>10</v>
       </c>
       <c r="D298" s="16" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="E298" s="16" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="F298" s="18" t="s">
-        <v>733</v>
+        <v>723</v>
       </c>
       <c r="G298" s="18"/>
       <c r="H298" s="18" t="s">
-        <v>734</v>
+        <v>724</v>
       </c>
       <c r="I298" s="16"/>
     </row>
     <row r="299" spans="1:9" s="17" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="A299" s="16" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="B299" s="16" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="C299" s="16"/>
       <c r="D299" s="16" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="E299" s="16" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="F299" s="18" t="s">
-        <v>739</v>
+        <v>729</v>
       </c>
       <c r="G299" s="18" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="H299" s="18" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="I299" s="16"/>
     </row>
@@ -16290,13 +16311,13 @@
       <c r="D301" s="16"/>
       <c r="E301" s="16"/>
       <c r="F301" s="18" t="s">
-        <v>740</v>
+        <v>730</v>
       </c>
       <c r="G301" s="18" t="s">
-        <v>741</v>
+        <v>731</v>
       </c>
       <c r="H301" s="18" t="s">
-        <v>735</v>
+        <v>725</v>
       </c>
       <c r="I301" s="16"/>
     </row>
@@ -16329,51 +16350,51 @@
     </row>
     <row r="303" spans="1:9" s="17" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="A303" s="16" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="B303" s="16" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="C303" s="16" t="s">
         <v>10</v>
       </c>
       <c r="D303" s="18" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="E303" s="18" t="s">
-        <v>737</v>
+        <v>727</v>
       </c>
       <c r="F303" s="16" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="G303" s="18"/>
       <c r="H303" s="24" t="s">
-        <v>742</v>
+        <v>732</v>
       </c>
       <c r="I303" s="16"/>
     </row>
     <row r="304" spans="1:9" s="17" customFormat="1" ht="36" x14ac:dyDescent="0.3">
       <c r="A304" s="16" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="B304" s="16" t="s">
-        <v>736</v>
+        <v>726</v>
       </c>
       <c r="C304" s="16"/>
       <c r="D304" s="18" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="E304" s="18" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="F304" s="16" t="s">
-        <v>738</v>
+        <v>728</v>
       </c>
       <c r="G304" s="18" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="H304" s="18" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="I304" s="16"/>
     </row>
@@ -16391,21 +16412,21 @@
     <row r="306" spans="1:9" s="17" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="A306" s="16"/>
       <c r="B306" s="14" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="C306" s="16"/>
       <c r="D306" s="18"/>
       <c r="E306" s="18" t="s">
-        <v>649</v>
+        <v>640</v>
       </c>
       <c r="F306" s="14" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="G306" s="18" t="s">
-        <v>741</v>
+        <v>731</v>
       </c>
       <c r="H306" s="18" t="s">
-        <v>649</v>
+        <v>640</v>
       </c>
       <c r="I306" s="16"/>
     </row>
@@ -16438,55 +16459,55 @@
     </row>
     <row r="308" spans="1:9" s="17" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="A308" s="16" t="s">
+        <v>539</v>
+      </c>
+      <c r="B308" s="16" t="s">
+        <v>540</v>
+      </c>
+      <c r="C308" s="16" t="s">
+        <v>541</v>
+      </c>
+      <c r="D308" s="18" t="s">
+        <v>733</v>
+      </c>
+      <c r="E308" s="16" t="s">
+        <v>542</v>
+      </c>
+      <c r="F308" s="16" t="s">
         <v>543</v>
-      </c>
-      <c r="B308" s="16" t="s">
-        <v>544</v>
-      </c>
-      <c r="C308" s="16" t="s">
-        <v>545</v>
-      </c>
-      <c r="D308" s="18" t="s">
-        <v>743</v>
-      </c>
-      <c r="E308" s="16" t="s">
-        <v>546</v>
-      </c>
-      <c r="F308" s="16" t="s">
-        <v>547</v>
       </c>
       <c r="G308" s="16" t="s">
         <v>306</v>
       </c>
       <c r="H308" s="16" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="I308" s="16"/>
     </row>
     <row r="309" spans="1:9" s="17" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="A309" s="16" t="s">
+        <v>545</v>
+      </c>
+      <c r="B309" s="16" t="s">
+        <v>546</v>
+      </c>
+      <c r="C309" s="16" t="s">
+        <v>547</v>
+      </c>
+      <c r="D309" s="18" t="s">
+        <v>548</v>
+      </c>
+      <c r="E309" s="16" t="s">
         <v>549</v>
       </c>
-      <c r="B309" s="16" t="s">
+      <c r="F309" s="16" t="s">
         <v>550</v>
-      </c>
-      <c r="C309" s="16" t="s">
-        <v>551</v>
-      </c>
-      <c r="D309" s="18" t="s">
-        <v>552</v>
-      </c>
-      <c r="E309" s="16" t="s">
-        <v>553</v>
-      </c>
-      <c r="F309" s="16" t="s">
-        <v>554</v>
       </c>
       <c r="G309" s="16" t="s">
         <v>312</v>
       </c>
       <c r="H309" s="16" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="I309" s="16"/>
     </row>
@@ -16506,7 +16527,7 @@
       <c r="B311" s="16"/>
       <c r="C311" s="16"/>
       <c r="D311" s="18" t="s">
-        <v>649</v>
+        <v>640</v>
       </c>
       <c r="E311" s="16"/>
       <c r="F311" s="16"/>
@@ -16542,8 +16563,8 @@
       </c>
     </row>
     <row r="313" spans="1:9" s="17" customFormat="1" ht="48" x14ac:dyDescent="0.3">
-      <c r="A313" s="16" t="s">
-        <v>556</v>
+      <c r="A313" s="28" t="s">
+        <v>552</v>
       </c>
       <c r="B313" s="19" t="s">
         <v>10</v>
@@ -16552,36 +16573,34 @@
         <v>10</v>
       </c>
       <c r="D313" s="18" t="s">
-        <v>745</v>
+        <v>735</v>
       </c>
       <c r="E313" s="19"/>
       <c r="F313" s="16" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="G313" s="18"/>
       <c r="H313" s="16" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="I313" s="16"/>
     </row>
     <row r="314" spans="1:9" s="17" customFormat="1" ht="48" x14ac:dyDescent="0.3">
-      <c r="A314" s="16" t="s">
-        <v>559</v>
-      </c>
+      <c r="A314" s="29"/>
       <c r="B314" s="19" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="C314" s="19" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="D314" s="18" t="s">
-        <v>744</v>
+        <v>734</v>
       </c>
       <c r="E314" s="19" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="F314" s="16" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="G314" s="18" t="s">
         <v>199</v>
@@ -16590,7 +16609,7 @@
       <c r="I314" s="16"/>
     </row>
     <row r="315" spans="1:9" s="17" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A315" s="16"/>
+      <c r="A315" s="29"/>
       <c r="B315" s="19"/>
       <c r="C315" s="19"/>
       <c r="D315" s="18"/>
@@ -16601,18 +16620,18 @@
       <c r="I315" s="16"/>
     </row>
     <row r="316" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A316" s="16"/>
+      <c r="A316" s="30"/>
       <c r="B316" s="19" t="s">
-        <v>702</v>
+        <v>693</v>
       </c>
       <c r="C316" s="19" t="s">
-        <v>747</v>
+        <v>737</v>
       </c>
       <c r="D316" s="18" t="s">
-        <v>649</v>
+        <v>640</v>
       </c>
       <c r="E316" s="19" t="s">
-        <v>746</v>
+        <v>736</v>
       </c>
       <c r="F316" s="16"/>
       <c r="G316" s="18"/>
@@ -16648,55 +16667,55 @@
     </row>
     <row r="318" spans="1:9" s="17" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="A318" s="16" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="B318" s="16" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="C318" s="16" t="s">
         <v>215</v>
       </c>
       <c r="D318" s="18" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="E318" s="16" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="F318" s="16" t="s">
         <v>92</v>
       </c>
       <c r="G318" s="16" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="H318" s="16" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="I318" s="16"/>
     </row>
     <row r="319" spans="1:9" s="17" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="A319" s="16" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="B319" s="16" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="C319" s="16" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="D319" s="18" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="E319" s="16" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="F319" s="16" t="s">
         <v>264</v>
       </c>
       <c r="G319" s="16" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="H319" s="16" t="s">
-        <v>748</v>
+        <v>738</v>
       </c>
       <c r="I319" s="16"/>
     </row>
@@ -16720,7 +16739,7 @@
       <c r="F321" s="16"/>
       <c r="G321" s="16"/>
       <c r="H321" s="14" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="I321" s="16"/>
     </row>
@@ -16753,53 +16772,53 @@
     </row>
     <row r="323" spans="1:9" s="17" customFormat="1" ht="36" x14ac:dyDescent="0.3">
       <c r="A323" s="16" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="B323" s="18" t="s">
-        <v>749</v>
+        <v>739</v>
       </c>
       <c r="C323" s="16" t="s">
         <v>10</v>
       </c>
       <c r="D323" s="16" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="E323" s="16" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="F323" s="16" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="G323" s="16" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="H323" s="16" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="I323" s="16"/>
     </row>
     <row r="324" spans="1:9" s="17" customFormat="1" ht="36" x14ac:dyDescent="0.3">
       <c r="A324" s="16" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="B324" s="18" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="C324" s="16"/>
       <c r="D324" s="16" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="E324" s="16" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="F324" s="16" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="G324" s="16" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="H324" s="16" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="I324" s="16"/>
     </row>
@@ -16817,7 +16836,7 @@
     <row r="326" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A326" s="16"/>
       <c r="B326" s="18" t="s">
-        <v>649</v>
+        <v>640</v>
       </c>
       <c r="C326" s="16"/>
       <c r="D326" s="16"/>
@@ -16854,9 +16873,9 @@
         <v>97.4</v>
       </c>
     </row>
-    <row r="328" spans="1:9" s="17" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A328" s="19" t="s">
-        <v>584</v>
+    <row r="328" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A328" s="28" t="s">
+        <v>750</v>
       </c>
       <c r="B328" s="19"/>
       <c r="C328" s="19" t="s">
@@ -16870,32 +16889,30 @@
       <c r="I328" s="16"/>
     </row>
     <row r="329" spans="1:9" s="17" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A329" s="19" t="s">
-        <v>585</v>
-      </c>
+      <c r="A329" s="29"/>
       <c r="B329" s="19" t="s">
         <v>194</v>
       </c>
       <c r="C329" s="19"/>
       <c r="D329" s="19" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="E329" s="19" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="F329" s="19" t="s">
         <v>264</v>
       </c>
       <c r="G329" s="19" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="H329" s="19" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="I329" s="16"/>
     </row>
     <row r="330" spans="1:9" s="17" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A330" s="19"/>
+      <c r="A330" s="29"/>
       <c r="B330" s="19"/>
       <c r="C330" s="19"/>
       <c r="D330" s="19"/>
@@ -16906,9 +16923,7 @@
       <c r="I330" s="16"/>
     </row>
     <row r="331" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A331" s="19" t="s">
-        <v>751</v>
-      </c>
+      <c r="A331" s="30"/>
       <c r="B331" s="19"/>
       <c r="C331" s="19"/>
       <c r="D331" s="19"/>
@@ -16947,10 +16962,10 @@
     </row>
     <row r="333" spans="1:9" s="17" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="A333" s="16" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="B333" s="16" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="C333" s="19" t="s">
         <v>10</v>
@@ -16960,36 +16975,36 @@
       </c>
       <c r="E333" s="16"/>
       <c r="F333" s="16" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="G333" s="18"/>
       <c r="H333" s="16" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="I333" s="16"/>
     </row>
     <row r="334" spans="1:9" s="17" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="A334" s="16" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
       <c r="B334" s="16" t="s">
-        <v>752</v>
+        <v>740</v>
       </c>
       <c r="C334" s="19" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
       <c r="D334" s="16" t="s">
         <v>16</v>
       </c>
       <c r="E334" s="16"/>
       <c r="F334" s="16" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="G334" s="18" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="H334" s="16" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="I334" s="16"/>
     </row>
@@ -17007,16 +17022,16 @@
     <row r="336" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A336" s="16"/>
       <c r="B336" s="14" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="C336" s="19" t="s">
-        <v>753</v>
+        <v>741</v>
       </c>
       <c r="D336" s="16"/>
       <c r="E336" s="16"/>
       <c r="F336" s="16"/>
       <c r="G336" s="18" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="H336" s="16"/>
       <c r="I336" s="16"/>
@@ -17050,51 +17065,51 @@
     </row>
     <row r="338" spans="1:9" s="17" customFormat="1" ht="36" x14ac:dyDescent="0.3">
       <c r="A338" s="16" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="B338" s="16" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="C338" s="16" t="s">
         <v>10</v>
       </c>
       <c r="D338" s="18" t="s">
-        <v>754</v>
+        <v>742</v>
       </c>
       <c r="E338" s="16" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="F338" s="18" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="G338" s="16" t="s">
         <v>84</v>
       </c>
       <c r="H338" s="18" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="I338" s="16"/>
     </row>
     <row r="339" spans="1:9" s="17" customFormat="1" ht="36" x14ac:dyDescent="0.3">
       <c r="A339" s="16" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="B339" s="16" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="C339" s="16"/>
       <c r="D339" s="18" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="E339" s="16" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
       <c r="F339" s="18" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
       <c r="G339" s="16"/>
       <c r="H339" s="18" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="I339" s="16"/>
     </row>
@@ -17114,17 +17129,17 @@
       <c r="B341" s="16"/>
       <c r="C341" s="16"/>
       <c r="D341" s="18" t="s">
-        <v>649</v>
+        <v>640</v>
       </c>
       <c r="E341" s="14" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="F341" s="15" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="G341" s="14"/>
       <c r="H341" s="15" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="I341" s="16"/>
     </row>
@@ -17156,55 +17171,53 @@
       </c>
     </row>
     <row r="343" spans="1:9" s="17" customFormat="1" ht="48" x14ac:dyDescent="0.3">
-      <c r="A343" s="19" t="s">
-        <v>609</v>
+      <c r="A343" s="28" t="s">
+        <v>602</v>
       </c>
       <c r="B343" s="16" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
       <c r="C343" s="16" t="s">
-        <v>611</v>
+        <v>604</v>
       </c>
       <c r="D343" s="16" t="s">
-        <v>612</v>
+        <v>605</v>
       </c>
       <c r="E343" s="19"/>
       <c r="F343" s="19" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="G343" s="19"/>
       <c r="H343" s="19" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
       <c r="I343" s="16"/>
     </row>
     <row r="344" spans="1:9" s="17" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A344" s="19" t="s">
-        <v>615</v>
-      </c>
+      <c r="A344" s="29"/>
       <c r="B344" s="16" t="s">
-        <v>755</v>
+        <v>743</v>
       </c>
       <c r="C344" s="16"/>
       <c r="D344" s="16" t="s">
-        <v>616</v>
+        <v>608</v>
       </c>
       <c r="E344" s="19" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="F344" s="19" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="G344" s="19" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="H344" s="19" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="I344" s="16"/>
     </row>
     <row r="345" spans="1:9" s="17" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A345" s="19"/>
+      <c r="A345" s="29"/>
       <c r="B345" s="16"/>
       <c r="C345" s="16"/>
       <c r="D345" s="16"/>
@@ -17215,22 +17228,20 @@
       <c r="I345" s="16"/>
     </row>
     <row r="346" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A346" s="19" t="s">
-        <v>750</v>
-      </c>
+      <c r="A346" s="30"/>
       <c r="B346" s="14" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="C346" s="16"/>
       <c r="D346" s="16"/>
       <c r="E346" s="20" t="s">
-        <v>756</v>
+        <v>744</v>
       </c>
       <c r="F346" s="20" t="s">
-        <v>756</v>
+        <v>744</v>
       </c>
       <c r="G346" s="20" t="s">
-        <v>756</v>
+        <v>744</v>
       </c>
       <c r="H346" s="19"/>
       <c r="I346" s="16"/>
@@ -17290,6 +17301,17 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A328:A331"/>
+    <mergeCell ref="A343:A346"/>
+    <mergeCell ref="A278:A281"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="A58:A61"/>
+    <mergeCell ref="A83:A86"/>
+    <mergeCell ref="A183:A186"/>
+    <mergeCell ref="A238:A241"/>
+    <mergeCell ref="A313:A316"/>
+  </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
